--- a/settings/dhelm_pnf_chart_gen_settings.xlsx
+++ b/settings/dhelm_pnf_chart_gen_settings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>method_percentage</t>
   </si>
@@ -27,9 +27,6 @@
     <t>from_dt</t>
   </si>
   <si>
-    <t>time_frame</t>
-  </si>
-  <si>
     <t>BOX_SIZE</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>day</t>
   </si>
 </sst>
 </file>
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -420,13 +414,12 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,38 +438,29 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>42527.385416666664</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="2">
+        <v>-1</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"day,hour,30minute"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"close,highlow"</formula1>
     </dataValidation>
